--- a/dataset/hair_salons/dev/dev.xlsx
+++ b/dataset/hair_salons/dev/dev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smina\PycharmProject\surprising-aspects\dataset\hair_salons\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4815FF3-9688-41FE-A4BB-F83BBDBF8D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFD7833-9660-426F-81C5-4CDB26ABB41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,13 +363,7 @@
     </r>
   </si>
   <si>
-    <t>costume jewelry, handbags, scarves, waxing's, nails, ATM machine, cancer victims</t>
-  </si>
-  <si>
     <t>most beautiful tall orchid, black slate floors, bright yellow walls</t>
-  </si>
-  <si>
-    <t>most beautiful tall orchid, costume jewelry, handbags, scarves, waxing's, nails, black slate floors, bright yellow walls, ATM machine, cancer victims</t>
   </si>
   <si>
     <t>The salon also sells costume jewelry, handbags and scarves.
@@ -1007,6 +1001,12 @@
   </si>
   <si>
     <t>abs_true_strong_weak</t>
+  </si>
+  <si>
+    <t>costume jewelry, handbags, scarves, waxing's, nails, ATM machine, hair donations</t>
+  </si>
+  <si>
+    <t>most beautiful tall orchid, costume jewelry, handbags, scarves, waxing's, nails, black slate floors, bright yellow walls, ATM machine, hair donations</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1144,6 +1144,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1453,8 +1456,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,164 +1484,164 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
+      <c r="A3" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="330" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="289.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="171.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="261" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
